--- a/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/GUM addition/22 Gum Addition overall .xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/GUM addition/22 Gum Addition overall .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\22MT Excel Results\GUM addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78830F77-E614-49A0-A70F-2D5FE4813BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C3B51-40FE-4CF9-8A90-CF9EB4B3C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Top Performing Machine Model and Results  for Production Tanks    22 MT  Gum Addition Phase</t>
+  </si>
+  <si>
+    <t>Poor Performing Machine Model and Results  for Production Tanks    22 MT  Gum Addition Phase</t>
   </si>
 </sst>
 </file>
@@ -440,6 +443,20 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,26 +472,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,18 +1468,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1514,7 +1517,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1547,7 +1550,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1583,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1616,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1648,7 +1651,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,60 +2029,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="17">
@@ -2106,7 +2109,7 @@
       <c r="J3" s="25">
         <v>0.99428006567671401</v>
       </c>
-      <c r="K3" s="50"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -2125,7 +2128,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,18 +2141,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2186,7 +2189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
@@ -2251,18 +2254,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2300,7 +2303,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2333,7 +2336,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2369,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2402,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2434,7 +2437,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
